--- a/Code/Results/Cases/Case_1_123/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_123/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.00618879674438</v>
+        <v>1.036218748958479</v>
       </c>
       <c r="D2">
-        <v>1.029793684920603</v>
+        <v>1.034946298474023</v>
       </c>
       <c r="E2">
-        <v>1.020022760498368</v>
+        <v>1.044513338906138</v>
       </c>
       <c r="F2">
-        <v>1.026921452224474</v>
+        <v>1.053862728952557</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.046582532428411</v>
+        <v>1.037682781627215</v>
       </c>
       <c r="J2">
-        <v>1.028185964591714</v>
+        <v>1.041328262338937</v>
       </c>
       <c r="K2">
-        <v>1.040852982808102</v>
+        <v>1.037744313713771</v>
       </c>
       <c r="L2">
-        <v>1.031210019907622</v>
+        <v>1.047284177382335</v>
       </c>
       <c r="M2">
-        <v>1.038018048835278</v>
+        <v>1.056607525719913</v>
       </c>
       <c r="N2">
-        <v>1.029646106596014</v>
+        <v>1.04280706791348</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.010442379066922</v>
+        <v>1.037128146719583</v>
       </c>
       <c r="D3">
-        <v>1.031974473896984</v>
+        <v>1.035416389222646</v>
       </c>
       <c r="E3">
-        <v>1.023594745542439</v>
+        <v>1.045330185210837</v>
       </c>
       <c r="F3">
-        <v>1.030911856891773</v>
+        <v>1.05478162590983</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.047561257528907</v>
+        <v>1.037844123692512</v>
       </c>
       <c r="J3">
-        <v>1.030652366334276</v>
+        <v>1.041881735219222</v>
       </c>
       <c r="K3">
-        <v>1.042213949961115</v>
+        <v>1.038024600668252</v>
       </c>
       <c r="L3">
-        <v>1.033934372169584</v>
+        <v>1.047912262288755</v>
       </c>
       <c r="M3">
-        <v>1.041163921154174</v>
+        <v>1.057339280999456</v>
       </c>
       <c r="N3">
-        <v>1.03211601091195</v>
+        <v>1.043361326788739</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.01314225640615</v>
+        <v>1.03771719302932</v>
       </c>
       <c r="D4">
-        <v>1.033363026882011</v>
+        <v>1.035720933713574</v>
       </c>
       <c r="E4">
-        <v>1.025867885466044</v>
+        <v>1.045859665969503</v>
       </c>
       <c r="F4">
-        <v>1.033451179606919</v>
+        <v>1.055377292733507</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.04817451101331</v>
+        <v>1.037947589179161</v>
       </c>
       <c r="J4">
-        <v>1.032215653407114</v>
+        <v>1.042239839757867</v>
       </c>
       <c r="K4">
-        <v>1.043074797763865</v>
+        <v>1.038205604346438</v>
       </c>
       <c r="L4">
-        <v>1.035663819089806</v>
+        <v>1.048318949657034</v>
       </c>
       <c r="M4">
-        <v>1.043161969560663</v>
+        <v>1.057813222090768</v>
       </c>
       <c r="N4">
-        <v>1.033681518031742</v>
+        <v>1.043719939876904</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.014265141769553</v>
+        <v>1.037964971709272</v>
       </c>
       <c r="D5">
-        <v>1.033941492256403</v>
+        <v>1.035849049680976</v>
       </c>
       <c r="E5">
-        <v>1.026814665729006</v>
+        <v>1.046082479935821</v>
       </c>
       <c r="F5">
-        <v>1.034508812444374</v>
+        <v>1.055627967755976</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.048427611687712</v>
+        <v>1.037990861903234</v>
       </c>
       <c r="J5">
-        <v>1.032865266542499</v>
+        <v>1.042390378751592</v>
       </c>
       <c r="K5">
-        <v>1.043432053478319</v>
+        <v>1.038281610826808</v>
       </c>
       <c r="L5">
-        <v>1.036383118907734</v>
+        <v>1.048489985480242</v>
       </c>
       <c r="M5">
-        <v>1.043993229758944</v>
+        <v>1.058012572410239</v>
       </c>
       <c r="N5">
-        <v>1.034332053692291</v>
+        <v>1.043870692653267</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.014452978926252</v>
+        <v>1.038006583224761</v>
       </c>
       <c r="D6">
-        <v>1.034038312762305</v>
+        <v>1.035870565875938</v>
       </c>
       <c r="E6">
-        <v>1.02697312368942</v>
+        <v>1.046119904251471</v>
       </c>
       <c r="F6">
-        <v>1.034685822605084</v>
+        <v>1.055670072200162</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.048469834632776</v>
+        <v>1.037998114419724</v>
       </c>
       <c r="J6">
-        <v>1.032973900450977</v>
+        <v>1.042415654400634</v>
       </c>
       <c r="K6">
-        <v>1.043491768539538</v>
+        <v>1.038294367488006</v>
       </c>
       <c r="L6">
-        <v>1.036503444098175</v>
+        <v>1.048518706890927</v>
       </c>
       <c r="M6">
-        <v>1.044132298272389</v>
+        <v>1.058046050350873</v>
       </c>
       <c r="N6">
-        <v>1.034440841873379</v>
+        <v>1.04389600419663</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.013157307627274</v>
+        <v>1.037720503297445</v>
       </c>
       <c r="D7">
-        <v>1.033370776965019</v>
+        <v>1.035722645271814</v>
       </c>
       <c r="E7">
-        <v>1.025880570779084</v>
+        <v>1.045862642357141</v>
       </c>
       <c r="F7">
-        <v>1.033465350212058</v>
+        <v>1.055380641258859</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.048177911353858</v>
+        <v>1.037948168273057</v>
       </c>
       <c r="J7">
-        <v>1.032224363117612</v>
+        <v>1.042241851300699</v>
       </c>
       <c r="K7">
-        <v>1.04307958956211</v>
+        <v>1.038206620293825</v>
       </c>
       <c r="L7">
-        <v>1.03567346059614</v>
+        <v>1.048321234794377</v>
       </c>
       <c r="M7">
-        <v>1.043173110814076</v>
+        <v>1.057815885406773</v>
       </c>
       <c r="N7">
-        <v>1.033690240111028</v>
+        <v>1.043721954276357</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.007637438918485</v>
+        <v>1.036525958129138</v>
       </c>
       <c r="D8">
-        <v>1.030535438128946</v>
+        <v>1.035105091346907</v>
       </c>
       <c r="E8">
-        <v>1.021238012910188</v>
+        <v>1.044789203141203</v>
       </c>
       <c r="F8">
-        <v>1.028279081903236</v>
+        <v>1.054173050073149</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.046917502497811</v>
+        <v>1.037737500850406</v>
       </c>
       <c r="J8">
-        <v>1.029026391377064</v>
+        <v>1.041515316514897</v>
       </c>
       <c r="K8">
-        <v>1.04131708267737</v>
+        <v>1.037839112027009</v>
       </c>
       <c r="L8">
-        <v>1.032137785798477</v>
+        <v>1.047496384043619</v>
       </c>
       <c r="M8">
-        <v>1.039089149577534</v>
+        <v>1.056854732546619</v>
       </c>
       <c r="N8">
-        <v>1.030487726883796</v>
+        <v>1.042994387727825</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9974889627059939</v>
+        <v>1.034425707531229</v>
       </c>
       <c r="D9">
-        <v>1.025360783007806</v>
+        <v>1.034019750555603</v>
       </c>
       <c r="E9">
-        <v>1.012751134018552</v>
+        <v>1.042904831974585</v>
       </c>
       <c r="F9">
-        <v>1.018797204976412</v>
+        <v>1.05205345672314</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.04453878355175</v>
+        <v>1.037359156594343</v>
       </c>
       <c r="J9">
-        <v>1.023130704846383</v>
+        <v>1.040234893128986</v>
       </c>
       <c r="K9">
-        <v>1.038055375854413</v>
+        <v>1.037188801722306</v>
       </c>
       <c r="L9">
-        <v>1.02564066587639</v>
+        <v>1.046045048609688</v>
       </c>
       <c r="M9">
-        <v>1.03159249844584</v>
+        <v>1.055164540256982</v>
       </c>
       <c r="N9">
-        <v>1.024583667801997</v>
+        <v>1.041712145993839</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9904103171530271</v>
+        <v>1.033028768805486</v>
       </c>
       <c r="D10">
-        <v>1.021782792307305</v>
+        <v>1.033298223444382</v>
       </c>
       <c r="E10">
-        <v>1.006867139118985</v>
+        <v>1.04165349576629</v>
       </c>
       <c r="F10">
-        <v>1.012222159434074</v>
+        <v>1.050646096822673</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.042840738078576</v>
+        <v>1.037102178257965</v>
       </c>
       <c r="J10">
-        <v>1.019009645533975</v>
+        <v>1.039381224899126</v>
       </c>
       <c r="K10">
-        <v>1.035769582823139</v>
+        <v>1.03675350300281</v>
       </c>
       <c r="L10">
-        <v>1.021113502399318</v>
+        <v>1.045079015933376</v>
       </c>
       <c r="M10">
-        <v>1.026374190648792</v>
+        <v>1.054040170008481</v>
       </c>
       <c r="N10">
-        <v>1.020456756112674</v>
+        <v>1.040857265457175</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9872638677022062</v>
+        <v>1.032424660132107</v>
       </c>
       <c r="D11">
-        <v>1.02020110567549</v>
+        <v>1.032986298804681</v>
       </c>
       <c r="E11">
-        <v>1.0042608291714</v>
+        <v>1.041112837851521</v>
       </c>
       <c r="F11">
-        <v>1.009309347346228</v>
+        <v>1.050038067374024</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.042077356991307</v>
+        <v>1.03698978567652</v>
       </c>
       <c r="J11">
-        <v>1.017176253767521</v>
+        <v>1.039011578430313</v>
       </c>
       <c r="K11">
-        <v>1.03475185576832</v>
+        <v>1.0365646107259</v>
       </c>
       <c r="L11">
-        <v>1.019102837356219</v>
+        <v>1.044661090181504</v>
       </c>
       <c r="M11">
-        <v>1.024057812801618</v>
+        <v>1.053553897895879</v>
       </c>
       <c r="N11">
-        <v>1.018620760719618</v>
+        <v>1.040487094047978</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9860822662844234</v>
+        <v>1.032200384927109</v>
       </c>
       <c r="D12">
-        <v>1.019608551795195</v>
+        <v>1.032870513243238</v>
       </c>
       <c r="E12">
-        <v>1.003283497903377</v>
+        <v>1.040912192123743</v>
       </c>
       <c r="F12">
-        <v>1.008217011491405</v>
+        <v>1.0498124251288</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.041789442918269</v>
+        <v>1.036947870558577</v>
       </c>
       <c r="J12">
-        <v>1.016487556847623</v>
+        <v>1.038874275992005</v>
       </c>
       <c r="K12">
-        <v>1.03436948412436</v>
+        <v>1.0364943879946</v>
       </c>
       <c r="L12">
-        <v>1.018348060487408</v>
+        <v>1.04450591119198</v>
       </c>
       <c r="M12">
-        <v>1.023188461742861</v>
+        <v>1.053373364465993</v>
       </c>
       <c r="N12">
-        <v>1.017931085771099</v>
+        <v>1.040349596624459</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9863363170726751</v>
+        <v>1.032248487376199</v>
       </c>
       <c r="D13">
-        <v>1.019735887888991</v>
+        <v>1.032895346119485</v>
       </c>
       <c r="E13">
-        <v>1.003493563942417</v>
+        <v>1.040955223201858</v>
       </c>
       <c r="F13">
-        <v>1.008451799780586</v>
+        <v>1.049860816764476</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.041851401061482</v>
+        <v>1.036956869063373</v>
       </c>
       <c r="J13">
-        <v>1.016635638525752</v>
+        <v>1.038903727781014</v>
       </c>
       <c r="K13">
-        <v>1.034451703010502</v>
+        <v>1.036509453693657</v>
       </c>
       <c r="L13">
-        <v>1.01851032737527</v>
+        <v>1.044539195001747</v>
       </c>
       <c r="M13">
-        <v>1.023375352139083</v>
+        <v>1.05341208541865</v>
       </c>
       <c r="N13">
-        <v>1.018079377742196</v>
+        <v>1.040379090238386</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9871664626031798</v>
+        <v>1.032406119066526</v>
       </c>
       <c r="D14">
-        <v>1.020152228971194</v>
+        <v>1.032976726349989</v>
       </c>
       <c r="E14">
-        <v>1.00418023364405</v>
+        <v>1.041096248758644</v>
       </c>
       <c r="F14">
-        <v>1.009219269467628</v>
+        <v>1.050019411484155</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.042053647691959</v>
+        <v>1.036986324373173</v>
       </c>
       <c r="J14">
-        <v>1.017119484855031</v>
+        <v>1.03900022894694</v>
       </c>
       <c r="K14">
-        <v>1.03472033824173</v>
+        <v>1.036558807304978</v>
       </c>
       <c r="L14">
-        <v>1.019040611111637</v>
+        <v>1.044648261862918</v>
       </c>
       <c r="M14">
-        <v>1.023986136907869</v>
+        <v>1.053538973108616</v>
       </c>
       <c r="N14">
-        <v>1.018563911188761</v>
+        <v>1.040475728447037</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.987676217155621</v>
+        <v>1.032503256780278</v>
       </c>
       <c r="D15">
-        <v>1.020408076430574</v>
+        <v>1.033026877671598</v>
       </c>
       <c r="E15">
-        <v>1.00460207651809</v>
+        <v>1.0411831629845</v>
       </c>
       <c r="F15">
-        <v>1.009690740728011</v>
+        <v>1.050117154399048</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.042177676508286</v>
+        <v>1.037004450584543</v>
       </c>
       <c r="J15">
-        <v>1.017416568535289</v>
+        <v>1.039059686628174</v>
       </c>
       <c r="K15">
-        <v>1.034885273480211</v>
+        <v>1.03658920781273</v>
       </c>
       <c r="L15">
-        <v>1.019366275006083</v>
+        <v>1.044715469178042</v>
       </c>
       <c r="M15">
-        <v>1.024361263565069</v>
+        <v>1.05361716472814</v>
       </c>
       <c r="N15">
-        <v>1.018861416761921</v>
+        <v>1.040535270564998</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9906173683382778</v>
+        <v>1.033068877940969</v>
       </c>
       <c r="D16">
-        <v>1.021887066161068</v>
+        <v>1.033318935573549</v>
       </c>
       <c r="E16">
-        <v>1.007038841617009</v>
+        <v>1.041689402424413</v>
       </c>
       <c r="F16">
-        <v>1.012414044920908</v>
+        <v>1.050686478668645</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.042890797359288</v>
+        <v>1.037109613857087</v>
       </c>
       <c r="J16">
-        <v>1.019130261940982</v>
+        <v>1.039405757158623</v>
       </c>
       <c r="K16">
-        <v>1.035836524987981</v>
+        <v>1.036766030723199</v>
       </c>
       <c r="L16">
-        <v>1.021245852232149</v>
+        <v>1.045106760248647</v>
       </c>
       <c r="M16">
-        <v>1.026526689616979</v>
+        <v>1.054072454787132</v>
       </c>
       <c r="N16">
-        <v>1.020577543808813</v>
+        <v>1.040881832555294</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9924400508108322</v>
+        <v>1.033423885502218</v>
       </c>
       <c r="D17">
-        <v>1.022806002032137</v>
+        <v>1.033502271290883</v>
       </c>
       <c r="E17">
-        <v>1.008551393589606</v>
+        <v>1.042007269792653</v>
       </c>
       <c r="F17">
-        <v>1.014104344669821</v>
+        <v>1.051043967794372</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.043330498226833</v>
+        <v>1.037175280797437</v>
       </c>
       <c r="J17">
-        <v>1.020191879002516</v>
+        <v>1.039622838163272</v>
       </c>
       <c r="K17">
-        <v>1.036425636173548</v>
+        <v>1.036876839413462</v>
       </c>
       <c r="L17">
-        <v>1.022411129003767</v>
+        <v>1.04535230747467</v>
       </c>
       <c r="M17">
-        <v>1.027869511910562</v>
+        <v>1.054358204524085</v>
       </c>
       <c r="N17">
-        <v>1.021640668488344</v>
+        <v>1.04109922183987</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9934953876015182</v>
+        <v>1.033631030102054</v>
       </c>
       <c r="D18">
-        <v>1.023338888886125</v>
+        <v>1.033609256165745</v>
       </c>
       <c r="E18">
-        <v>1.009428026333196</v>
+        <v>1.042192790093772</v>
       </c>
       <c r="F18">
-        <v>1.015083957465911</v>
+        <v>1.05125261690763</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.043584265142339</v>
+        <v>1.037213475176272</v>
       </c>
       <c r="J18">
-        <v>1.020806403785051</v>
+        <v>1.039749457526722</v>
       </c>
       <c r="K18">
-        <v>1.036766566662687</v>
+        <v>1.036941433090057</v>
       </c>
       <c r="L18">
-        <v>1.023085980288571</v>
+        <v>1.045495566901243</v>
       </c>
       <c r="M18">
-        <v>1.028647304455289</v>
+        <v>1.054524934114409</v>
       </c>
       <c r="N18">
-        <v>1.022256065966557</v>
+        <v>1.04122602101734</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.993853925635689</v>
+        <v>1.033701673690222</v>
       </c>
       <c r="D19">
-        <v>1.023520066782378</v>
+        <v>1.033645743372539</v>
       </c>
       <c r="E19">
-        <v>1.009725996336038</v>
+        <v>1.042256066950117</v>
       </c>
       <c r="F19">
-        <v>1.015416924606013</v>
+        <v>1.051323783161348</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.0436703385959</v>
+        <v>1.037226480127863</v>
       </c>
       <c r="J19">
-        <v>1.021015153883243</v>
+        <v>1.039792631371061</v>
       </c>
       <c r="K19">
-        <v>1.036882363352515</v>
+        <v>1.036963451188399</v>
       </c>
       <c r="L19">
-        <v>1.023315277561716</v>
+        <v>1.045544420712446</v>
       </c>
       <c r="M19">
-        <v>1.028911598703671</v>
+        <v>1.054581794154363</v>
       </c>
       <c r="N19">
-        <v>1.022465112513833</v>
+        <v>1.041269256173489</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9922453058879444</v>
+        <v>1.033385788815733</v>
       </c>
       <c r="D20">
-        <v>1.022707732148233</v>
+        <v>1.033482596099384</v>
       </c>
       <c r="E20">
-        <v>1.008389694791932</v>
+        <v>1.041973153866292</v>
       </c>
       <c r="F20">
-        <v>1.013923647780088</v>
+        <v>1.051005598954619</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.043283603043067</v>
+        <v>1.037168246526248</v>
       </c>
       <c r="J20">
-        <v>1.020078465914277</v>
+        <v>1.03959954745047</v>
       </c>
       <c r="K20">
-        <v>1.03636270915564</v>
+        <v>1.036864954731817</v>
       </c>
       <c r="L20">
-        <v>1.022286608453106</v>
+        <v>1.045325958860562</v>
       </c>
       <c r="M20">
-        <v>1.027726006690533</v>
+        <v>1.054327540416764</v>
       </c>
       <c r="N20">
-        <v>1.021527094340511</v>
+        <v>1.041075898051584</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9869223661306977</v>
+        <v>1.032359697204956</v>
       </c>
       <c r="D21">
-        <v>1.0200297676509</v>
+        <v>1.032952759756526</v>
       </c>
       <c r="E21">
-        <v>1.003978285064921</v>
+        <v>1.041054715301644</v>
       </c>
       <c r="F21">
-        <v>1.008993559748618</v>
+        <v>1.049972703565689</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.041994212604397</v>
+        <v>1.036977655137446</v>
       </c>
       <c r="J21">
-        <v>1.016977219391616</v>
+        <v>1.038971811730176</v>
       </c>
       <c r="K21">
-        <v>1.034641352913758</v>
+        <v>1.036544275536338</v>
       </c>
       <c r="L21">
-        <v>1.018884677565929</v>
+        <v>1.04461614280059</v>
       </c>
       <c r="M21">
-        <v>1.023806526363692</v>
+        <v>1.053501605359543</v>
       </c>
       <c r="N21">
-        <v>1.018421443692069</v>
+        <v>1.040447270874565</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9835008080674057</v>
+        <v>1.031715234001577</v>
       </c>
       <c r="D22">
-        <v>1.018316740193063</v>
+        <v>1.032620077809497</v>
       </c>
       <c r="E22">
-        <v>1.00115100524653</v>
+        <v>1.040478291175176</v>
       </c>
       <c r="F22">
-        <v>1.00583344339367</v>
+        <v>1.049324479483961</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.041158220187668</v>
+        <v>1.036856853933592</v>
       </c>
       <c r="J22">
-        <v>1.014982645336474</v>
+        <v>1.038577134068775</v>
       </c>
       <c r="K22">
-        <v>1.033533867247779</v>
+        <v>1.036342306779182</v>
       </c>
       <c r="L22">
-        <v>1.01669969493066</v>
+        <v>1.044170185074669</v>
       </c>
       <c r="M22">
-        <v>1.021290217676225</v>
+        <v>1.052982826786262</v>
       </c>
       <c r="N22">
-        <v>1.016424037112989</v>
+        <v>1.040052032725615</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9853219600775276</v>
+        <v>1.032056811150358</v>
       </c>
       <c r="D23">
-        <v>1.019227686572512</v>
+        <v>1.032796395811603</v>
       </c>
       <c r="E23">
-        <v>1.002655040396247</v>
+        <v>1.040783765911758</v>
       </c>
       <c r="F23">
-        <v>1.007514580980716</v>
+        <v>1.049668001207542</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.041603841640105</v>
+        <v>1.03692098455482</v>
       </c>
       <c r="J23">
-        <v>1.016044362887516</v>
+        <v>1.038786359353587</v>
       </c>
       <c r="K23">
-        <v>1.034123404529784</v>
+        <v>1.036449406567155</v>
       </c>
       <c r="L23">
-        <v>1.017862486581822</v>
+        <v>1.044406563838045</v>
       </c>
       <c r="M23">
-        <v>1.022629230694329</v>
+        <v>1.053257791405529</v>
       </c>
       <c r="N23">
-        <v>1.017487262424734</v>
+        <v>1.04026155513433</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9923333268026384</v>
+        <v>1.033403002837819</v>
       </c>
       <c r="D24">
-        <v>1.022752145686181</v>
+        <v>1.033491486322663</v>
       </c>
       <c r="E24">
-        <v>1.008462776833166</v>
+        <v>1.041988569033957</v>
       </c>
       <c r="F24">
-        <v>1.014005316391368</v>
+        <v>1.051022935774822</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.043304801301777</v>
+        <v>1.037171425344503</v>
       </c>
       <c r="J24">
-        <v>1.020129726902231</v>
+        <v>1.039610071522135</v>
       </c>
       <c r="K24">
-        <v>1.036391151463392</v>
+        <v>1.036870325029018</v>
       </c>
       <c r="L24">
-        <v>1.022342888845639</v>
+        <v>1.045337864554376</v>
       </c>
       <c r="M24">
-        <v>1.027790867344246</v>
+        <v>1.054341396032202</v>
       </c>
       <c r="N24">
-        <v>1.021578428124947</v>
+        <v>1.041086437068638</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.0001654880753</v>
+        <v>1.034968109120536</v>
       </c>
       <c r="D25">
-        <v>1.026720522852375</v>
+        <v>1.034299986430222</v>
       </c>
       <c r="E25">
-        <v>1.014983485578056</v>
+        <v>1.043391128284634</v>
       </c>
       <c r="F25">
-        <v>1.021291449949554</v>
+        <v>1.052600424465018</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.045173044558628</v>
+        <v>1.03745780753925</v>
       </c>
       <c r="J25">
-        <v>1.024687284169731</v>
+        <v>1.040565927373034</v>
       </c>
       <c r="K25">
-        <v>1.038917729297015</v>
+        <v>1.037357237304072</v>
       </c>
       <c r="L25">
-        <v>1.027353571229429</v>
+        <v>1.046419990369704</v>
       </c>
       <c r="M25">
-        <v>1.033567996035062</v>
+        <v>1.055601074252027</v>
       </c>
       <c r="N25">
-        <v>1.026142457646527</v>
+        <v>1.042043650344484</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_123/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_123/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.036218748958479</v>
+        <v>1.00618879674438</v>
       </c>
       <c r="D2">
-        <v>1.034946298474023</v>
+        <v>1.029793684920604</v>
       </c>
       <c r="E2">
-        <v>1.044513338906138</v>
+        <v>1.020022760498367</v>
       </c>
       <c r="F2">
-        <v>1.053862728952557</v>
+        <v>1.026921452224474</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.037682781627215</v>
+        <v>1.046582532428411</v>
       </c>
       <c r="J2">
-        <v>1.041328262338937</v>
+        <v>1.028185964591713</v>
       </c>
       <c r="K2">
-        <v>1.037744313713771</v>
+        <v>1.040852982808102</v>
       </c>
       <c r="L2">
-        <v>1.047284177382335</v>
+        <v>1.031210019907622</v>
       </c>
       <c r="M2">
-        <v>1.056607525719913</v>
+        <v>1.038018048835278</v>
       </c>
       <c r="N2">
-        <v>1.04280706791348</v>
+        <v>1.029646106596014</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.037128146719583</v>
+        <v>1.010442379066922</v>
       </c>
       <c r="D3">
-        <v>1.035416389222646</v>
+        <v>1.031974473896983</v>
       </c>
       <c r="E3">
-        <v>1.045330185210837</v>
+        <v>1.023594745542439</v>
       </c>
       <c r="F3">
-        <v>1.05478162590983</v>
+        <v>1.030911856891772</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.037844123692512</v>
+        <v>1.047561257528907</v>
       </c>
       <c r="J3">
-        <v>1.041881735219222</v>
+        <v>1.030652366334275</v>
       </c>
       <c r="K3">
-        <v>1.038024600668252</v>
+        <v>1.042213949961114</v>
       </c>
       <c r="L3">
-        <v>1.047912262288755</v>
+        <v>1.033934372169584</v>
       </c>
       <c r="M3">
-        <v>1.057339280999456</v>
+        <v>1.041163921154173</v>
       </c>
       <c r="N3">
-        <v>1.043361326788739</v>
+        <v>1.032116010911949</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.03771719302932</v>
+        <v>1.013142256406149</v>
       </c>
       <c r="D4">
-        <v>1.035720933713574</v>
+        <v>1.03336302688201</v>
       </c>
       <c r="E4">
-        <v>1.045859665969503</v>
+        <v>1.025867885466042</v>
       </c>
       <c r="F4">
-        <v>1.055377292733507</v>
+        <v>1.033451179606917</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.037947589179161</v>
+        <v>1.04817451101331</v>
       </c>
       <c r="J4">
-        <v>1.042239839757867</v>
+        <v>1.032215653407113</v>
       </c>
       <c r="K4">
-        <v>1.038205604346438</v>
+        <v>1.043074797763865</v>
       </c>
       <c r="L4">
-        <v>1.048318949657034</v>
+        <v>1.035663819089805</v>
       </c>
       <c r="M4">
-        <v>1.057813222090768</v>
+        <v>1.043161969560661</v>
       </c>
       <c r="N4">
-        <v>1.043719939876904</v>
+        <v>1.033681518031741</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.037964971709272</v>
+        <v>1.014265141769553</v>
       </c>
       <c r="D5">
-        <v>1.035849049680976</v>
+        <v>1.033941492256402</v>
       </c>
       <c r="E5">
-        <v>1.046082479935821</v>
+        <v>1.026814665729005</v>
       </c>
       <c r="F5">
-        <v>1.055627967755976</v>
+        <v>1.034508812444374</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.037990861903234</v>
+        <v>1.048427611687712</v>
       </c>
       <c r="J5">
-        <v>1.042390378751592</v>
+        <v>1.032865266542498</v>
       </c>
       <c r="K5">
-        <v>1.038281610826808</v>
+        <v>1.043432053478319</v>
       </c>
       <c r="L5">
-        <v>1.048489985480242</v>
+        <v>1.036383118907734</v>
       </c>
       <c r="M5">
-        <v>1.058012572410239</v>
+        <v>1.043993229758944</v>
       </c>
       <c r="N5">
-        <v>1.043870692653267</v>
+        <v>1.03433205369229</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.038006583224761</v>
+        <v>1.014452978926251</v>
       </c>
       <c r="D6">
-        <v>1.035870565875938</v>
+        <v>1.034038312762305</v>
       </c>
       <c r="E6">
-        <v>1.046119904251471</v>
+        <v>1.026973123689419</v>
       </c>
       <c r="F6">
-        <v>1.055670072200162</v>
+        <v>1.034685822605083</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.037998114419724</v>
+        <v>1.048469834632775</v>
       </c>
       <c r="J6">
-        <v>1.042415654400634</v>
+        <v>1.032973900450976</v>
       </c>
       <c r="K6">
-        <v>1.038294367488006</v>
+        <v>1.043491768539538</v>
       </c>
       <c r="L6">
-        <v>1.048518706890927</v>
+        <v>1.036503444098174</v>
       </c>
       <c r="M6">
-        <v>1.058046050350873</v>
+        <v>1.044132298272388</v>
       </c>
       <c r="N6">
-        <v>1.04389600419663</v>
+        <v>1.034440841873379</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.037720503297445</v>
+        <v>1.013157307627273</v>
       </c>
       <c r="D7">
-        <v>1.035722645271814</v>
+        <v>1.033370776965019</v>
       </c>
       <c r="E7">
-        <v>1.045862642357141</v>
+        <v>1.025880570779084</v>
       </c>
       <c r="F7">
-        <v>1.055380641258859</v>
+        <v>1.033465350212057</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.037948168273057</v>
+        <v>1.048177911353858</v>
       </c>
       <c r="J7">
-        <v>1.042241851300699</v>
+        <v>1.032224363117611</v>
       </c>
       <c r="K7">
-        <v>1.038206620293825</v>
+        <v>1.04307958956211</v>
       </c>
       <c r="L7">
-        <v>1.048321234794377</v>
+        <v>1.035673460596139</v>
       </c>
       <c r="M7">
-        <v>1.057815885406773</v>
+        <v>1.043173110814075</v>
       </c>
       <c r="N7">
-        <v>1.043721954276357</v>
+        <v>1.033690240111028</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.036525958129138</v>
+        <v>1.007637438918485</v>
       </c>
       <c r="D8">
-        <v>1.035105091346907</v>
+        <v>1.030535438128946</v>
       </c>
       <c r="E8">
-        <v>1.044789203141203</v>
+        <v>1.021238012910187</v>
       </c>
       <c r="F8">
-        <v>1.054173050073149</v>
+        <v>1.028279081903236</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.037737500850406</v>
+        <v>1.046917502497811</v>
       </c>
       <c r="J8">
-        <v>1.041515316514897</v>
+        <v>1.029026391377064</v>
       </c>
       <c r="K8">
-        <v>1.037839112027009</v>
+        <v>1.04131708267737</v>
       </c>
       <c r="L8">
-        <v>1.047496384043619</v>
+        <v>1.032137785798476</v>
       </c>
       <c r="M8">
-        <v>1.056854732546619</v>
+        <v>1.039089149577534</v>
       </c>
       <c r="N8">
-        <v>1.042994387727825</v>
+        <v>1.030487726883796</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.034425707531229</v>
+        <v>0.9974889627059932</v>
       </c>
       <c r="D9">
-        <v>1.034019750555603</v>
+        <v>1.025360783007806</v>
       </c>
       <c r="E9">
-        <v>1.042904831974585</v>
+        <v>1.012751134018552</v>
       </c>
       <c r="F9">
-        <v>1.05205345672314</v>
+        <v>1.018797204976412</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.037359156594343</v>
+        <v>1.04453878355175</v>
       </c>
       <c r="J9">
-        <v>1.040234893128986</v>
+        <v>1.023130704846382</v>
       </c>
       <c r="K9">
-        <v>1.037188801722306</v>
+        <v>1.038055375854413</v>
       </c>
       <c r="L9">
-        <v>1.046045048609688</v>
+        <v>1.02564066587639</v>
       </c>
       <c r="M9">
-        <v>1.055164540256982</v>
+        <v>1.03159249844584</v>
       </c>
       <c r="N9">
-        <v>1.041712145993839</v>
+        <v>1.024583667801997</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.033028768805486</v>
+        <v>0.9904103171530266</v>
       </c>
       <c r="D10">
-        <v>1.033298223444382</v>
+        <v>1.021782792307305</v>
       </c>
       <c r="E10">
-        <v>1.04165349576629</v>
+        <v>1.006867139118984</v>
       </c>
       <c r="F10">
-        <v>1.050646096822673</v>
+        <v>1.012222159434073</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.037102178257965</v>
+        <v>1.042840738078576</v>
       </c>
       <c r="J10">
-        <v>1.039381224899126</v>
+        <v>1.019009645533975</v>
       </c>
       <c r="K10">
-        <v>1.03675350300281</v>
+        <v>1.035769582823139</v>
       </c>
       <c r="L10">
-        <v>1.045079015933376</v>
+        <v>1.021113502399317</v>
       </c>
       <c r="M10">
-        <v>1.054040170008481</v>
+        <v>1.026374190648792</v>
       </c>
       <c r="N10">
-        <v>1.040857265457175</v>
+        <v>1.020456756112673</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.032424660132107</v>
+        <v>0.9872638677022055</v>
       </c>
       <c r="D11">
-        <v>1.032986298804681</v>
+        <v>1.020201105675489</v>
       </c>
       <c r="E11">
-        <v>1.041112837851521</v>
+        <v>1.004260829171399</v>
       </c>
       <c r="F11">
-        <v>1.050038067374024</v>
+        <v>1.009309347346227</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.03698978567652</v>
+        <v>1.042077356991306</v>
       </c>
       <c r="J11">
-        <v>1.039011578430313</v>
+        <v>1.017176253767521</v>
       </c>
       <c r="K11">
-        <v>1.0365646107259</v>
+        <v>1.034751855768319</v>
       </c>
       <c r="L11">
-        <v>1.044661090181504</v>
+        <v>1.019102837356219</v>
       </c>
       <c r="M11">
-        <v>1.053553897895879</v>
+        <v>1.024057812801618</v>
       </c>
       <c r="N11">
-        <v>1.040487094047978</v>
+        <v>1.018620760719618</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.032200384927109</v>
+        <v>0.9860822662844235</v>
       </c>
       <c r="D12">
-        <v>1.032870513243238</v>
+        <v>1.019608551795195</v>
       </c>
       <c r="E12">
-        <v>1.040912192123743</v>
+        <v>1.003283497903377</v>
       </c>
       <c r="F12">
-        <v>1.0498124251288</v>
+        <v>1.008217011491405</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.036947870558577</v>
+        <v>1.04178944291827</v>
       </c>
       <c r="J12">
-        <v>1.038874275992005</v>
+        <v>1.016487556847623</v>
       </c>
       <c r="K12">
-        <v>1.0364943879946</v>
+        <v>1.03436948412436</v>
       </c>
       <c r="L12">
-        <v>1.04450591119198</v>
+        <v>1.018348060487408</v>
       </c>
       <c r="M12">
-        <v>1.053373364465993</v>
+        <v>1.023188461742861</v>
       </c>
       <c r="N12">
-        <v>1.040349596624459</v>
+        <v>1.017931085771099</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.032248487376199</v>
+        <v>0.9863363170726748</v>
       </c>
       <c r="D13">
-        <v>1.032895346119485</v>
+        <v>1.01973588788899</v>
       </c>
       <c r="E13">
-        <v>1.040955223201858</v>
+        <v>1.003493563942416</v>
       </c>
       <c r="F13">
-        <v>1.049860816764476</v>
+        <v>1.008451799780586</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.036956869063373</v>
+        <v>1.041851401061482</v>
       </c>
       <c r="J13">
-        <v>1.038903727781014</v>
+        <v>1.016635638525751</v>
       </c>
       <c r="K13">
-        <v>1.036509453693657</v>
+        <v>1.034451703010502</v>
       </c>
       <c r="L13">
-        <v>1.044539195001747</v>
+        <v>1.01851032737527</v>
       </c>
       <c r="M13">
-        <v>1.05341208541865</v>
+        <v>1.023375352139083</v>
       </c>
       <c r="N13">
-        <v>1.040379090238386</v>
+        <v>1.018079377742196</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.032406119066526</v>
+        <v>0.987166462603178</v>
       </c>
       <c r="D14">
-        <v>1.032976726349989</v>
+        <v>1.020152228971194</v>
       </c>
       <c r="E14">
-        <v>1.041096248758644</v>
+        <v>1.004180233644049</v>
       </c>
       <c r="F14">
-        <v>1.050019411484155</v>
+        <v>1.009219269467627</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.036986324373173</v>
+        <v>1.042053647691959</v>
       </c>
       <c r="J14">
-        <v>1.03900022894694</v>
+        <v>1.01711948485503</v>
       </c>
       <c r="K14">
-        <v>1.036558807304978</v>
+        <v>1.034720338241729</v>
       </c>
       <c r="L14">
-        <v>1.044648261862918</v>
+        <v>1.019040611111636</v>
       </c>
       <c r="M14">
-        <v>1.053538973108616</v>
+        <v>1.023986136907868</v>
       </c>
       <c r="N14">
-        <v>1.040475728447037</v>
+        <v>1.018563911188759</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.032503256780278</v>
+        <v>0.9876762171556202</v>
       </c>
       <c r="D15">
-        <v>1.033026877671598</v>
+        <v>1.020408076430575</v>
       </c>
       <c r="E15">
-        <v>1.0411831629845</v>
+        <v>1.004602076518089</v>
       </c>
       <c r="F15">
-        <v>1.050117154399048</v>
+        <v>1.00969074072801</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.037004450584543</v>
+        <v>1.042177676508285</v>
       </c>
       <c r="J15">
-        <v>1.039059686628174</v>
+        <v>1.017416568535288</v>
       </c>
       <c r="K15">
-        <v>1.03658920781273</v>
+        <v>1.034885273480211</v>
       </c>
       <c r="L15">
-        <v>1.044715469178042</v>
+        <v>1.019366275006082</v>
       </c>
       <c r="M15">
-        <v>1.05361716472814</v>
+        <v>1.024361263565068</v>
       </c>
       <c r="N15">
-        <v>1.040535270564998</v>
+        <v>1.018861416761919</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.033068877940969</v>
+        <v>0.9906173683382768</v>
       </c>
       <c r="D16">
-        <v>1.033318935573549</v>
+        <v>1.021887066161068</v>
       </c>
       <c r="E16">
-        <v>1.041689402424413</v>
+        <v>1.007038841617008</v>
       </c>
       <c r="F16">
-        <v>1.050686478668645</v>
+        <v>1.012414044920907</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.037109613857087</v>
+        <v>1.042890797359288</v>
       </c>
       <c r="J16">
-        <v>1.039405757158623</v>
+        <v>1.019130261940981</v>
       </c>
       <c r="K16">
-        <v>1.036766030723199</v>
+        <v>1.035836524987981</v>
       </c>
       <c r="L16">
-        <v>1.045106760248647</v>
+        <v>1.021245852232148</v>
       </c>
       <c r="M16">
-        <v>1.054072454787132</v>
+        <v>1.026526689616978</v>
       </c>
       <c r="N16">
-        <v>1.040881832555294</v>
+        <v>1.020577543808812</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.033423885502218</v>
+        <v>0.9924400508108321</v>
       </c>
       <c r="D17">
-        <v>1.033502271290883</v>
+        <v>1.022806002032137</v>
       </c>
       <c r="E17">
-        <v>1.042007269792653</v>
+        <v>1.008551393589606</v>
       </c>
       <c r="F17">
-        <v>1.051043967794372</v>
+        <v>1.014104344669821</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.037175280797437</v>
+        <v>1.043330498226833</v>
       </c>
       <c r="J17">
-        <v>1.039622838163272</v>
+        <v>1.020191879002516</v>
       </c>
       <c r="K17">
-        <v>1.036876839413462</v>
+        <v>1.036425636173548</v>
       </c>
       <c r="L17">
-        <v>1.04535230747467</v>
+        <v>1.022411129003767</v>
       </c>
       <c r="M17">
-        <v>1.054358204524085</v>
+        <v>1.027869511910562</v>
       </c>
       <c r="N17">
-        <v>1.04109922183987</v>
+        <v>1.021640668488344</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.033631030102054</v>
+        <v>0.9934953876015178</v>
       </c>
       <c r="D18">
-        <v>1.033609256165745</v>
+        <v>1.023338888886125</v>
       </c>
       <c r="E18">
-        <v>1.042192790093772</v>
+        <v>1.009428026333196</v>
       </c>
       <c r="F18">
-        <v>1.05125261690763</v>
+        <v>1.015083957465911</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.037213475176272</v>
+        <v>1.043584265142339</v>
       </c>
       <c r="J18">
-        <v>1.039749457526722</v>
+        <v>1.02080640378505</v>
       </c>
       <c r="K18">
-        <v>1.036941433090057</v>
+        <v>1.036766566662687</v>
       </c>
       <c r="L18">
-        <v>1.045495566901243</v>
+        <v>1.023085980288571</v>
       </c>
       <c r="M18">
-        <v>1.054524934114409</v>
+        <v>1.028647304455289</v>
       </c>
       <c r="N18">
-        <v>1.04122602101734</v>
+        <v>1.022256065966556</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.033701673690222</v>
+        <v>0.9938539256356884</v>
       </c>
       <c r="D19">
-        <v>1.033645743372539</v>
+        <v>1.023520066782378</v>
       </c>
       <c r="E19">
-        <v>1.042256066950117</v>
+        <v>1.009725996336038</v>
       </c>
       <c r="F19">
-        <v>1.051323783161348</v>
+        <v>1.015416924606012</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.037226480127863</v>
+        <v>1.0436703385959</v>
       </c>
       <c r="J19">
-        <v>1.039792631371061</v>
+        <v>1.021015153883243</v>
       </c>
       <c r="K19">
-        <v>1.036963451188399</v>
+        <v>1.036882363352515</v>
       </c>
       <c r="L19">
-        <v>1.045544420712446</v>
+        <v>1.023315277561716</v>
       </c>
       <c r="M19">
-        <v>1.054581794154363</v>
+        <v>1.028911598703671</v>
       </c>
       <c r="N19">
-        <v>1.041269256173489</v>
+        <v>1.022465112513832</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.033385788815733</v>
+        <v>0.9922453058879437</v>
       </c>
       <c r="D20">
-        <v>1.033482596099384</v>
+        <v>1.022707732148233</v>
       </c>
       <c r="E20">
-        <v>1.041973153866292</v>
+        <v>1.008389694791932</v>
       </c>
       <c r="F20">
-        <v>1.051005598954619</v>
+        <v>1.013923647780087</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.037168246526248</v>
+        <v>1.043283603043067</v>
       </c>
       <c r="J20">
-        <v>1.03959954745047</v>
+        <v>1.020078465914276</v>
       </c>
       <c r="K20">
-        <v>1.036864954731817</v>
+        <v>1.03636270915564</v>
       </c>
       <c r="L20">
-        <v>1.045325958860562</v>
+        <v>1.022286608453105</v>
       </c>
       <c r="M20">
-        <v>1.054327540416764</v>
+        <v>1.027726006690533</v>
       </c>
       <c r="N20">
-        <v>1.041075898051584</v>
+        <v>1.02152709434051</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.032359697204956</v>
+        <v>0.9869223661306969</v>
       </c>
       <c r="D21">
-        <v>1.032952759756526</v>
+        <v>1.0200297676509</v>
       </c>
       <c r="E21">
-        <v>1.041054715301644</v>
+        <v>1.003978285064921</v>
       </c>
       <c r="F21">
-        <v>1.049972703565689</v>
+        <v>1.008993559748618</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.036977655137446</v>
+        <v>1.041994212604397</v>
       </c>
       <c r="J21">
-        <v>1.038971811730176</v>
+        <v>1.016977219391615</v>
       </c>
       <c r="K21">
-        <v>1.036544275536338</v>
+        <v>1.034641352913758</v>
       </c>
       <c r="L21">
-        <v>1.04461614280059</v>
+        <v>1.018884677565929</v>
       </c>
       <c r="M21">
-        <v>1.053501605359543</v>
+        <v>1.023806526363691</v>
       </c>
       <c r="N21">
-        <v>1.040447270874565</v>
+        <v>1.018421443692069</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.031715234001577</v>
+        <v>0.9835008080674057</v>
       </c>
       <c r="D22">
-        <v>1.032620077809497</v>
+        <v>1.018316740193063</v>
       </c>
       <c r="E22">
-        <v>1.040478291175176</v>
+        <v>1.00115100524653</v>
       </c>
       <c r="F22">
-        <v>1.049324479483961</v>
+        <v>1.00583344339367</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.036856853933592</v>
+        <v>1.041158220187668</v>
       </c>
       <c r="J22">
-        <v>1.038577134068775</v>
+        <v>1.014982645336474</v>
       </c>
       <c r="K22">
-        <v>1.036342306779182</v>
+        <v>1.033533867247779</v>
       </c>
       <c r="L22">
-        <v>1.044170185074669</v>
+        <v>1.01669969493066</v>
       </c>
       <c r="M22">
-        <v>1.052982826786262</v>
+        <v>1.021290217676225</v>
       </c>
       <c r="N22">
-        <v>1.040052032725615</v>
+        <v>1.016424037112989</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.032056811150358</v>
+        <v>0.9853219600775269</v>
       </c>
       <c r="D23">
-        <v>1.032796395811603</v>
+        <v>1.019227686572512</v>
       </c>
       <c r="E23">
-        <v>1.040783765911758</v>
+        <v>1.002655040396247</v>
       </c>
       <c r="F23">
-        <v>1.049668001207542</v>
+        <v>1.007514580980716</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.03692098455482</v>
+        <v>1.041603841640105</v>
       </c>
       <c r="J23">
-        <v>1.038786359353587</v>
+        <v>1.016044362887516</v>
       </c>
       <c r="K23">
-        <v>1.036449406567155</v>
+        <v>1.034123404529784</v>
       </c>
       <c r="L23">
-        <v>1.044406563838045</v>
+        <v>1.017862486581822</v>
       </c>
       <c r="M23">
-        <v>1.053257791405529</v>
+        <v>1.022629230694328</v>
       </c>
       <c r="N23">
-        <v>1.04026155513433</v>
+        <v>1.017487262424733</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.033403002837819</v>
+        <v>0.992333326802638</v>
       </c>
       <c r="D24">
-        <v>1.033491486322663</v>
+        <v>1.022752145686181</v>
       </c>
       <c r="E24">
-        <v>1.041988569033957</v>
+        <v>1.008462776833165</v>
       </c>
       <c r="F24">
-        <v>1.051022935774822</v>
+        <v>1.014005316391368</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.037171425344503</v>
+        <v>1.043304801301777</v>
       </c>
       <c r="J24">
-        <v>1.039610071522135</v>
+        <v>1.02012972690223</v>
       </c>
       <c r="K24">
-        <v>1.036870325029018</v>
+        <v>1.036391151463392</v>
       </c>
       <c r="L24">
-        <v>1.045337864554376</v>
+        <v>1.022342888845638</v>
       </c>
       <c r="M24">
-        <v>1.054341396032202</v>
+        <v>1.027790867344246</v>
       </c>
       <c r="N24">
-        <v>1.041086437068638</v>
+        <v>1.021578428124947</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.034968109120536</v>
+        <v>1.000165488075299</v>
       </c>
       <c r="D25">
-        <v>1.034299986430222</v>
+        <v>1.026720522852375</v>
       </c>
       <c r="E25">
-        <v>1.043391128284634</v>
+        <v>1.014983485578055</v>
       </c>
       <c r="F25">
-        <v>1.052600424465018</v>
+        <v>1.021291449949553</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.03745780753925</v>
+        <v>1.045173044558628</v>
       </c>
       <c r="J25">
-        <v>1.040565927373034</v>
+        <v>1.02468728416973</v>
       </c>
       <c r="K25">
-        <v>1.037357237304072</v>
+        <v>1.038917729297015</v>
       </c>
       <c r="L25">
-        <v>1.046419990369704</v>
+        <v>1.027353571229428</v>
       </c>
       <c r="M25">
-        <v>1.055601074252027</v>
+        <v>1.033567996035061</v>
       </c>
       <c r="N25">
-        <v>1.042043650344484</v>
+        <v>1.026142457646526</v>
       </c>
     </row>
   </sheetData>
